--- a/biology/Médecine/Jimmy_Mohamed/Jimmy_Mohamed.xlsx
+++ b/biology/Médecine/Jimmy_Mohamed/Jimmy_Mohamed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jimmy Mohamed est un médecin et chroniqueur français.
 </t>
@@ -513,28 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Jimmy Mohamed naît à Courbevoie et passe son enfance dans le XXe arrondissement de Paris[1].
-Carrière
-En tant que médecin
-Entre 2006 et 2015, il suit des études de médecine à l’université Paris Diderot[2]. Il soutient une thèse sur les Complications graves de la constipation chez le patient psychiatrique[3].
-Il obtient son doctorat en novembre 2013 et devient médecin généraliste. Il décide alors en parallèle de son activité d’être chargé de la supervision médicale d’événements pour l’International Service Medical Assistance[2].
-Il intègre de 2011 à 2015, l’Assistance Publique – Hôpitaux de Paris comme médecin spécialisé[2].
-Le 20 février 2019, il publie son premier ouvrage intitulé En attendant le docteur aux éditions Flammarion[2].
-En 2023, il publie son livre Zéro contraintes pour rester jeune où il explique l'importance d'avoir une alimentation équilibrée[4],[5],[6],[7],[8],[9].
-En 2024, il publie une liste de produits régionaux français présentés au Salon de l'Agriculture qu'il déclare bon pour la santé[10].
-En tant que chroniqueur
-Il est d’abord chroniqueur radio sur RMC pour Info Talk Sport entre 2015 et 2016. Il intègre ensuite comme consultant, l’émission Les Grandes Gueules sur les mêmes ondes[2].
-En août 2018, il rejoint l'émission Balance ton post ! sur C8[2] dont il participe à la saison 10[11].
-En 2020, il intègre l'équipe de La Quotidienne[12].
-En 2021, il quitte Europe 1[13] pour rejoindre le magazine de la santé sur France 5[14].
-Il intervient en 2023 dans l'émission Quelle époque ! de Léa Salamé[4] et Tous en cuisine de Cyril Lignac[15]. La même année, il rejoint la chronique Ça va Beaucoup Mieux de RTL[16],[17],[18] et Bonjour docteur de France Bleu[19]. Il participe aussi en 2023 à l'émission Fort Boyard[20].
-En 2023, il décide de se retirer des réseaux sociaux après avoir reçu des menaces de mort[21],[22].
-Il présente aussi le magazine de la santé[23].
-Dans ces chroniques, il présente différentes avancées médicales[24],[25]. Il divulgue aussi des conseils nutritionnels[26],[27],[28].
-Il partage aussi ces conseils sur les réseaux sociaux[29].
-Vie privée
-Il est marié à une sage-femme depuis le début des années 2010 et a trois garçons[2],[30],[31].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jimmy Mohamed naît à Courbevoie et passe son enfance dans le XXe arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -560,15 +557,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prises de positions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Covid-19
-Il publie en juillet 2020 avec le Dr Antoine Pelissolo une tribune dans Le Parisien pour demander de rendre obligatoire le port du masque dans les lieux publics[32].
-Accueil des migrants
-Pendant l'affaire de l'Aquarius, il se déclare en faveur de l'accueil des migrants[33].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>En tant que médecin</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2006 et 2015, il suit des études de médecine à l’université Paris Diderot. Il soutient une thèse sur les Complications graves de la constipation chez le patient psychiatrique.
+Il obtient son doctorat en novembre 2013 et devient médecin généraliste. Il décide alors en parallèle de son activité d’être chargé de la supervision médicale d’événements pour l’International Service Medical Assistance.
+Il intègre de 2011 à 2015, l’Assistance Publique – Hôpitaux de Paris comme médecin spécialisé.
+Le 20 février 2019, il publie son premier ouvrage intitulé En attendant le docteur aux éditions Flammarion.
+En 2023, il publie son livre Zéro contraintes pour rester jeune où il explique l'importance d'avoir une alimentation équilibrée.
+En 2024, il publie une liste de produits régionaux français présentés au Salon de l'Agriculture qu'il déclare bon pour la santé.
 </t>
         </is>
       </c>
@@ -594,10 +603,172 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>En tant que chroniqueur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est d’abord chroniqueur radio sur RMC pour Info Talk Sport entre 2015 et 2016. Il intègre ensuite comme consultant, l’émission Les Grandes Gueules sur les mêmes ondes.
+En août 2018, il rejoint l'émission Balance ton post ! sur C8 dont il participe à la saison 10.
+En 2020, il intègre l'équipe de La Quotidienne.
+En 2021, il quitte Europe 1 pour rejoindre le magazine de la santé sur France 5.
+Il intervient en 2023 dans l'émission Quelle époque ! de Léa Salamé et Tous en cuisine de Cyril Lignac. La même année, il rejoint la chronique Ça va Beaucoup Mieux de RTL et Bonjour docteur de France Bleu. Il participe aussi en 2023 à l'émission Fort Boyard.
+En 2023, il décide de se retirer des réseaux sociaux après avoir reçu des menaces de mort,.
+Il présente aussi le magazine de la santé.
+Dans ces chroniques, il présente différentes avancées médicales,. Il divulgue aussi des conseils nutritionnels.
+Il partage aussi ces conseils sur les réseaux sociaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié à une sage-femme depuis le début des années 2010 et a trois garçons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prises de positions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Covid-19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie en juillet 2020 avec le Dr Antoine Pelissolo une tribune dans Le Parisien pour demander de rendre obligatoire le port du masque dans les lieux publics.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prises de positions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accueil des migrants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant l'affaire de l'Aquarius, il se déclare en faveur de l'accueil des migrants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jimmy_Mohamed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jimmy Mohamed, Zéro contrainte pour maigrir: surtout, ne faites pas de régime !, Flammarion, 2023 (ISBN 978-2-08-041150-1)
 Jimmy Mohamed, Zéro contrainte: surtout, ne changez rien !, J'ai lu, coll. « J'ai lu », 2023 (ISBN 978-2-290-38008-6)
